--- a/biology/Médecine/Hypersialorrhée/Hypersialorrhée.xlsx
+++ b/biology/Médecine/Hypersialorrhée/Hypersialorrhée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hypersialorrh%C3%A9e</t>
+          <t>Hypersialorrhée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’hypersialorrhée, appelée aussi hypersialie[1], hypersalivation ou ptyalisme (du grec ptualismos « crachat »), est un terme médical désignant la sécrétion surabondante de la salive et du fluide muqueux buccal.
+L’hypersialorrhée, appelée aussi hypersialie, hypersalivation ou ptyalisme (du grec ptualismos « crachat »), est un terme médical désignant la sécrétion surabondante de la salive et du fluide muqueux buccal.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hypersialorrh%C3%A9e</t>
+          <t>Hypersialorrhée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'étiologie est variée, les causes peuvent se classer par origines : bactériennes, gastro-intestinales, respiratoires, cardiovasculaires, alimentaires, mécaniques, nerveuses ou toxiques.
 Chez un nouveau-né, toute hypersialorrhée est présumée être le reflet d'une atrésie de l'œsophage jusqu'à preuve du contraire.
@@ -523,8 +537,8 @@
 un cancer ;
 un abcès (amygdalien, rétropharyngé) ;
 la douleur ;
-certains médicaments : neuroleptiques atypiques (tels que olanzapine, rispéridone et plus encore la clozapine[2],[3]), le lithium[4], les inhibiteurs de cholinestérases[2], le béthanéchol[2], le clonazépam[2], le clobazam[2], le zonisamide[2] ou le tétrabénazine[2] ;
-divers produits chimiques susceptibles de causer des troubles neurologiques : pesticides antiparasitaires dont l'antihelminthique lévamisole et certains traitements anti-puces externes pour chiens et chats, l'ingestion de glyphosate (Roundup)[5].
+certains médicaments : neuroleptiques atypiques (tels que olanzapine, rispéridone et plus encore la clozapine,), le lithium, les inhibiteurs de cholinestérases, le béthanéchol, le clonazépam, le clobazam, le zonisamide ou le tétrabénazine ;
+divers produits chimiques susceptibles de causer des troubles neurologiques : pesticides antiparasitaires dont l'antihelminthique lévamisole et certains traitements anti-puces externes pour chiens et chats, l'ingestion de glyphosate (Roundup).
 C'est également l'un des symptômes du diverticule de Zenker.
 L’hypersialorrhée chronique peut être causée par :
 la rage ;
@@ -544,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hypersialorrh%C3%A9e</t>
+          <t>Hypersialorrhée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,7 +576,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il dépend de la cause. On peut aussi administrer un anticholinergique pour réduire l'hypersécrétion.
 </t>
